--- a/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Madagascar</t>
   </si>
@@ -94,6 +94,36 @@
     <t>Source: INSTAT, 2005</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;200</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=200</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -287,9 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Agriculture </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Fishing, pisciculture</t>
@@ -409,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,347 +543,414 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
+      <c r="A21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E29" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>80</v>
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>90</v>
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
+      <c r="A37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="E41" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B42" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C42" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="D42" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="E42" s="0" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>92</v>
+      <c r="A44" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>102</v>
+      <c r="A47" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1"/>
+    <hyperlink ref="A49" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Madagascar</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>INSTAT</t>
-  </si>
-  <si>
-    <t>Institut National de la Statistique de Madagascar (INSTAT), "Le rapport de l’enquête sur les entreprises à Madagascar", 2005. Available at http://www.instat.mg/pdf/enq_entreprises_2005.pdf</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,12 +922,12 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -938,20 +935,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>112</v>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A49" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Madagascar Summary.xlsx
@@ -46,13 +46,13 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>11.1</t>
+    <t>11.13</t>
   </si>
   <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>11.5</t>
+    <t>11.53</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
@@ -61,10 +61,10 @@
     <t>59</t>
   </si>
   <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>77.2</t>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>77.23</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>96.3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>99.8</t>
+    <t>96.34</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>99.81</t>
   </si>
   <si>
     <t>Source: INSTAT, 2005</t>
